--- a/HORAS_SOFTWARE.xlsx
+++ b/HORAS_SOFTWARE.xlsx
@@ -30,27 +30,12 @@
     <t>COMPONENTES DEL GRUPO</t>
   </si>
   <si>
-    <t xml:space="preserve">Pedro Ramoneda Franco </t>
-  </si>
-  <si>
-    <t>Joaquin Fernández Oyer</t>
-  </si>
-  <si>
     <t>Darío Ferrer Chueca</t>
   </si>
   <si>
     <t>Gabriel</t>
   </si>
   <si>
-    <t>Alexito reggetonero</t>
-  </si>
-  <si>
-    <t>Osmar Ali</t>
-  </si>
-  <si>
-    <t>Diego Santolaya Martínez</t>
-  </si>
-  <si>
     <t>NIA</t>
   </si>
   <si>
@@ -302,6 +287,21 @@
       </rPr>
       <t>TOTAL HORAS DEDICADAS</t>
     </r>
+  </si>
+  <si>
+    <t>Osmar Ali Baba</t>
+  </si>
+  <si>
+    <t>Pedro Ramoneda Franquista</t>
+  </si>
+  <si>
+    <t>Joaquin Fernández OfensiveMan</t>
+  </si>
+  <si>
+    <t>Alejandro Francés Rubio</t>
+  </si>
+  <si>
+    <t>Diego Santolaya Firulais</t>
   </si>
 </sst>
 </file>
@@ -595,6 +595,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,18 +613,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,12 +925,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T21" sqref="T21"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
@@ -961,94 +961,94 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1">
-      <c r="C8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="14"/>
+      <c r="C8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1">
       <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="G9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="I9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="J9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="K9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="L9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="M9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="N9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="O9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="P9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="Q9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="R9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="S9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="T9" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="25" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="19"/>
+      <c r="A10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="16"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1064,7 +1064,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="21"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="10">
         <f t="shared" ref="S10:S15" si="0">SUM($C10:$Q10)</f>
         <v>0</v>
@@ -1072,10 +1072,10 @@
       <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="19"/>
+      <c r="A11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="16"/>
       <c r="C11" s="3"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1091,7 +1091,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="22"/>
+      <c r="R11" s="25"/>
       <c r="S11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1099,10 +1099,10 @@
       <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="19"/>
+      <c r="A12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="3"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1118,7 +1118,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="22"/>
+      <c r="R12" s="25"/>
       <c r="S12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1126,10 +1126,10 @@
       <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="19"/>
+      <c r="A13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="3"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1145,7 +1145,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="22"/>
+      <c r="R13" s="25"/>
       <c r="S13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1153,10 +1153,10 @@
       <c r="T13" s="9"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="19"/>
+      <c r="A14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="16"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1172,7 +1172,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="22"/>
+      <c r="R14" s="25"/>
       <c r="S14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1180,10 +1180,10 @@
       <c r="T14" s="9"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="19"/>
+      <c r="A15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="16"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1199,7 +1199,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="22"/>
+      <c r="R15" s="25"/>
       <c r="S15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1207,10 +1207,10 @@
       <c r="T15" s="9"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="A16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="17">
         <v>727209</v>
       </c>
       <c r="C16" s="4">
@@ -1258,7 +1258,7 @@
       <c r="Q16" s="2">
         <v>30</v>
       </c>
-      <c r="R16" s="23"/>
+      <c r="R16" s="26"/>
       <c r="S16" s="10">
         <f>SUM($C16:$Q16)</f>
         <v>116</v>
@@ -1266,7 +1266,7 @@
       <c r="T16" s="9"/>
     </row>
     <row r="17" spans="20:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="T17" s="26">
+      <c r="T17" s="20">
         <f>SUM(S10:S16)</f>
         <v>116</v>
       </c>

--- a/HORAS_SOFTWARE.xlsx
+++ b/HORAS_SOFTWARE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -30,12 +30,6 @@
     <t>COMPONENTES DEL GRUPO</t>
   </si>
   <si>
-    <t>Darío Ferrer Chueca</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
     <t>NIA</t>
   </si>
   <si>
@@ -289,19 +283,25 @@
     </r>
   </si>
   <si>
-    <t>Osmar Ali Baba</t>
-  </si>
-  <si>
-    <t>Pedro Ramoneda Franquista</t>
-  </si>
-  <si>
-    <t>Joaquin Fernández OfensiveMan</t>
-  </si>
-  <si>
-    <t>Alejandro Francés Rubio</t>
-  </si>
-  <si>
-    <t>Diego Santolaya Firulais</t>
+    <t>Gabriel García</t>
+  </si>
+  <si>
+    <t>Pedro Ramoneda</t>
+  </si>
+  <si>
+    <t>Joaquin Fernández</t>
+  </si>
+  <si>
+    <t>Darío Ferrer</t>
+  </si>
+  <si>
+    <t>Alejandro Francés</t>
+  </si>
+  <si>
+    <t>Osmar Ali De La Fuente</t>
+  </si>
+  <si>
+    <t>Diego Santolaya</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -616,6 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,8 +925,8 @@
   <dimension ref="A4:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -962,7 +963,7 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1">
       <c r="C8" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -987,66 +988,66 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="I9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="J9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="M9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="N9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="O9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="P9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="Q9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="R9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="S9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="T9" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="S9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1">
       <c r="A10" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="5"/>
@@ -1073,34 +1074,66 @@
     </row>
     <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="B11" s="16">
+        <v>715821</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" s="27">
+        <v>3</v>
+      </c>
+      <c r="G11" s="27">
+        <v>10</v>
+      </c>
+      <c r="H11" s="27">
+        <v>8</v>
+      </c>
+      <c r="I11" s="27">
+        <v>8</v>
+      </c>
+      <c r="J11" s="27">
+        <v>8</v>
+      </c>
+      <c r="K11" s="27">
+        <v>6</v>
+      </c>
+      <c r="L11" s="27">
+        <v>4</v>
+      </c>
+      <c r="M11" s="27">
+        <v>3</v>
+      </c>
+      <c r="N11" s="27">
+        <v>2</v>
+      </c>
+      <c r="O11" s="27">
+        <v>5</v>
+      </c>
+      <c r="P11" s="27">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>9</v>
+      </c>
       <c r="R11" s="25"/>
       <c r="S11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="3"/>
@@ -1127,9 +1160,11 @@
     </row>
     <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="B13" s="16">
+        <v>723553</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1154,7 +1189,7 @@
     </row>
     <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="3"/>
@@ -1181,28 +1216,60 @@
     </row>
     <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="B15" s="16">
+        <v>719152</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5</v>
+      </c>
+      <c r="F15" s="27">
+        <v>7</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27">
+        <v>20</v>
+      </c>
+      <c r="I15" s="27">
+        <v>5</v>
+      </c>
+      <c r="J15" s="27">
+        <v>40</v>
+      </c>
+      <c r="K15" s="27">
+        <v>0</v>
+      </c>
+      <c r="L15" s="27">
+        <v>5</v>
+      </c>
+      <c r="M15" s="27">
+        <v>1</v>
+      </c>
+      <c r="N15" s="27">
+        <v>2</v>
+      </c>
+      <c r="O15" s="27">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>30</v>
+      </c>
       <c r="R15" s="25"/>
       <c r="S15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="T15" s="9"/>
     </row>
@@ -1268,7 +1335,7 @@
     <row r="17" spans="20:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="T17" s="20">
         <f>SUM(S10:S16)</f>
-        <v>116</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="20:20" ht="15.75" thickTop="1"/>
